--- a/bluff-lake.xlsx
+++ b/bluff-lake.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Documents\projects\Bluff-Lake-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11304" windowHeight="4728" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11304" windowHeight="4728" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="paddlefish" sheetId="1" r:id="rId1"/>
@@ -11500,8 +11500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11635,7 +11635,7 @@
         <v>300000</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" si="1"/>
+        <f>I$6*($A6/(I$5+$A6))</f>
         <v>1.7892644135188866E-2</v>
       </c>
       <c r="C6" s="4">
@@ -41017,7 +41017,7 @@
   <dimension ref="A1:H1402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41068,7 +41068,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">($G$2-B3)*0.1</f>
+        <f>($G$2-B3)*0.1</f>
         <v>79.94285714285715</v>
       </c>
       <c r="G3">
@@ -41087,7 +41087,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f>($G$2-B4)*0.1</f>
         <v>79.8857142857143</v>
       </c>
       <c r="G4">
@@ -41107,7 +41107,7 @@
         <v>1.7142857142857144</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C3:C66" si="1">($G$2-B5)*0.1</f>
         <v>79.828571428571436</v>
       </c>
       <c r="G5">
@@ -54503,8 +54503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
